--- a/Docs/P4_01_analyse_SEO.xlsx
+++ b/Docs/P4_01_analyse_SEO.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="158">
   <si>
     <t>Audit du site web : La Chouette agence</t>
   </si>
@@ -284,9 +284,6 @@
     <t>Un code non minifié alourdit la page et ralentit son chargement</t>
   </si>
   <si>
-    <t xml:space="preserve">BLOC 3 : Les couleurs de texte #575757 et #FFFFFF sur fond #F3976C ne remplissent pas les conditions du niveau AA de WCAG 2.0 </t>
-  </si>
-  <si>
     <t>Catégorie</t>
   </si>
   <si>
@@ -407,43 +404,121 @@
     <t>ACCESSIBILITE</t>
   </si>
   <si>
-    <t>BLOC 3 : Les couleurs de texte #F3976C ne semblent pas assez lisibles, notamment sur fond blanc</t>
-  </si>
-  <si>
     <t>Le contraste des couleurs DOIT respecter le niveau AA de WCAG 2.0</t>
   </si>
   <si>
-    <t>Page Contact : Le texte du bloc 6 est de la même couleur que son fond.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">L’information véhiculée par la couleur </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DOIT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> toujours être disponible via un autre moyen</t>
-    </r>
-  </si>
-  <si>
     <t>L'information d'interaction des liens n'est véhiculée que par les couleurs</t>
   </si>
   <si>
     <t>Tous les éléments de la page ne portent pas le focus de manière visible</t>
+  </si>
+  <si>
+    <t>Présence d'images composées uniquement de texte (cf. citation)</t>
+  </si>
+  <si>
+    <t>Les images avec du texte doivent être évitées.</t>
+  </si>
+  <si>
+    <t>Source :</t>
+  </si>
+  <si>
+    <t>Check List du MDN - Mozilla</t>
+  </si>
+  <si>
+    <t>Bonne pratique à adopter</t>
+  </si>
+  <si>
+    <t>Privilégier le https et rediriger http</t>
+  </si>
+  <si>
+    <t>Le nom donné aux pages doit être explicite.</t>
+  </si>
+  <si>
+    <t>Page2 n'indique rien sur le contenu de celle-ci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne pas faire du redimensionnement sous CSS en priviligiant une image qui a une taille proche de son conteneur </t>
+  </si>
+  <si>
+    <t>Deux images de la page d'ccueil sont redimensionnées sous css</t>
+  </si>
+  <si>
+    <t>Afin d'améliorer la qualité des backlinks, il faut renseigner les meta OG et les twitter cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google privilégie les sites régulièrement mis à jour </t>
+  </si>
+  <si>
+    <t>Crée réer une section actualité sur la page d'accueil, qui évoquera régulièrement les dernières infos sur l'agence</t>
+  </si>
+  <si>
+    <t>Trouver des partenariats pertinents</t>
+  </si>
+  <si>
+    <t>Favoriser les partenariats ayant un rapport avec notre activité par un échange de liens</t>
+  </si>
+  <si>
+    <t>Ici les partenariats retenus ne semblent pas correspondre à l'activité, le gain en trafic risque d'être faible ou du moins de mauvaise qualité (taux de rebond important).</t>
+  </si>
+  <si>
+    <t>Mettre en place Google Analytics &amp; Google Search Console. Faire une analyse trimestrielle du SEO du site</t>
+  </si>
+  <si>
+    <t>Ici rien n'est prévu pour suivre l'évolution du SERP sur les mots clés liés à l'acticité</t>
+  </si>
+  <si>
+    <t>Faire une analyse trimestrielle du SEO du site</t>
+  </si>
+  <si>
+    <t>Paramétrer les éléments de page par nature statique (CSS global, logos …) sur 1 an, tous les autres, sur une semaine</t>
+  </si>
+  <si>
+    <t>Minifier le code afin de réduire lepoids de la page</t>
+  </si>
+  <si>
+    <t>Compresser les images sans perte de données permet un gain de place</t>
+  </si>
+  <si>
+    <t>Présence d'images non compréssées</t>
+  </si>
+  <si>
+    <t>Certains liens ne semblent pas signaler qu'ils sont activables (cf. header &amp; barre de navigation)</t>
+  </si>
+  <si>
+    <t>Toujours renseigner correctement ces balises. Elle permettent à Google de connaitre le nom de la page et son sujet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le site doit, soit posséder une version mobile ou être responsive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les pratiques black hat pour tromper les moteurs de recherche sont à prohiber </t>
+  </si>
+  <si>
+    <t>Changer la langue en "fr"</t>
+  </si>
+  <si>
+    <t>Utiliser une redirection ou une balise canonique pour index.html.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les couleurs de texte #575757 et #FFFFFF sur fond #F3976C ne remplissent pas les conditions du niveau AA de WCAG 2.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les couleurs de texte #F3976C ne semblent pas assez lisibles, notamment sur fond blanc et d'images</t>
+  </si>
+  <si>
+    <t>Page Contact : Le texte du bloc 6 n'est pas visible sur le site?</t>
+  </si>
+  <si>
+    <t>Page 2 Contact : il existe un lien activable tronqué en haut à gauche</t>
+  </si>
+  <si>
+    <t>Ici le titre "page2&gt;" n'indique rien sur le contenu de la page.</t>
+  </si>
+  <si>
+    <t>L’information véhiculée par la couleur DOIT toujours être disponible via un autre moyen</t>
+  </si>
+  <si>
+    <t>L’information véhiculée DOIT toujours être disponible via un autre moyen</t>
   </si>
   <si>
     <r>
@@ -453,7 +528,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color theme="9" tint="0.59999389629810485"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -462,7 +537,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color theme="9" tint="0.59999389629810485"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -470,95 +545,14 @@
     </r>
   </si>
   <si>
-    <t>Présence d'images composées uniquement de texte (cf. citation)</t>
-  </si>
-  <si>
-    <t>Les images avec du texte doivent être évitées.</t>
-  </si>
-  <si>
-    <t>Source :</t>
-  </si>
-  <si>
-    <t>Check List du MDN - Mozilla</t>
-  </si>
-  <si>
-    <t>Bonne pratique à adopter</t>
-  </si>
-  <si>
-    <t>Privilégier le https et rediriger http</t>
-  </si>
-  <si>
-    <t>Le nom donné aux pages doit être explicite.</t>
-  </si>
-  <si>
-    <t>Page2 n'indique rien sur le contenu de celle-ci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ne pas faire du redimensionnement sous CSS en priviligiant une image qui a une taille proche de son conteneur </t>
-  </si>
-  <si>
-    <t>Deux images de la page d'ccueil sont redimensionnées sous css</t>
-  </si>
-  <si>
-    <t>Afin d'améliorer la qualité des backlinks, il faut renseigner les meta OG et les twitter cards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google privilégie les sites régulièrement mis à jour </t>
-  </si>
-  <si>
-    <t>Crée réer une section actualité sur la page d'accueil, qui évoquera régulièrement les dernières infos sur l'agence</t>
-  </si>
-  <si>
-    <t>Trouver des partenariats pertinents</t>
-  </si>
-  <si>
-    <t>Favoriser les partenariats ayant un rapport avec notre activité par un échange de liens</t>
-  </si>
-  <si>
-    <t>Ici les partenariats retenus ne semblent pas correspondre à l'activité, le gain en trafic risque d'être faible ou du moins de mauvaise qualité (taux de rebond important).</t>
-  </si>
-  <si>
-    <t>Mettre en place Google Analytics &amp; Google Search Console. Faire une analyse trimestrielle du SEO du site</t>
-  </si>
-  <si>
-    <t>Ici rien n'est prévu pour suivre l'évolution du SERP sur les mots clés liés à l'acticité</t>
-  </si>
-  <si>
-    <t>Faire une analyse trimestrielle du SEO du site</t>
-  </si>
-  <si>
-    <t>Paramétrer les éléments de page par nature statique (CSS global, logos …) sur 1 an, tous les autres, sur une semaine</t>
-  </si>
-  <si>
-    <t>Minifier le code afin de réduire lepoids de la page</t>
-  </si>
-  <si>
-    <t>Compresser les images sans perte de données permet un gain de place</t>
-  </si>
-  <si>
-    <t>Présence d'images non compréssées</t>
-  </si>
-  <si>
-    <t>Certains liens ne semblent pas signaler qu'ils sont activables (cf. header &amp; barre de navigation)</t>
-  </si>
-  <si>
-    <t>Toujours renseigner correctement ces balises. Elle permettent à Google de connaitre le nom de la page et son sujet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le site doit, soit posséder une version mobile ou être responsive </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les pratiques black hat pour tromper les moteurs de recherche sont à prohiber </t>
-  </si>
-  <si>
-    <t>Changer la langue en "fr"</t>
+    <t>L'information d'interaction des liens n'est pas pertinnente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -621,6 +615,25 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="0.59999389629810485"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="0.59999389629810485"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -864,7 +877,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -951,6 +964,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -960,12 +983,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1265,14 +1283,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -2331,16 +2349,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="85" style="1" customWidth="1"/>
+    <col min="2" max="2" width="93" style="1" customWidth="1"/>
     <col min="3" max="3" width="127.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="107.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
@@ -2350,16 +2368,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="65" t="s">
         <v>78</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>79</v>
       </c>
       <c r="C1" s="65" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E1" s="65"/>
       <c r="F1" s="66"/>
@@ -2384,7 +2402,7 @@
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="68"/>
     </row>
@@ -2396,13 +2414,13 @@
         <v>49</v>
       </c>
       <c r="C3" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="75" t="s">
         <v>81</v>
-      </c>
-      <c r="D3" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="75" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2410,14 +2428,16 @@
         <v>48</v>
       </c>
       <c r="B4" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="D4" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="75" t="s">
         <v>84</v>
-      </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2425,16 +2445,16 @@
         <v>48</v>
       </c>
       <c r="B5" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="75" t="s">
         <v>86</v>
-      </c>
-      <c r="C5" s="74" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="75" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2445,13 +2465,13 @@
         <v>55</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E6" s="75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2459,16 +2479,16 @@
         <v>48</v>
       </c>
       <c r="B7" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="75" t="s">
         <v>89</v>
-      </c>
-      <c r="C7" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="75" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:24" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2476,28 +2496,28 @@
         <v>48</v>
       </c>
       <c r="B8" s="73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="74" t="s">
         <v>76</v>
       </c>
       <c r="D8" s="74" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E8" s="75"/>
     </row>
     <row r="9" spans="1:24" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="74" t="s">
-        <v>144</v>
+      <c r="C9" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>139</v>
       </c>
       <c r="E9" s="75"/>
     </row>
@@ -2509,13 +2529,13 @@
         <v>57</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E10" s="75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2523,16 +2543,16 @@
         <v>48</v>
       </c>
       <c r="B11" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="75" t="s">
         <v>94</v>
-      </c>
-      <c r="C11" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="75" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2540,13 +2560,13 @@
         <v>48</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D12" s="74" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E12" s="75"/>
     </row>
@@ -2554,14 +2574,14 @@
       <c r="A13" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="83" t="s">
-        <v>141</v>
+      <c r="B13" s="80" t="s">
+        <v>136</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D13" s="74" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E13" s="75"/>
     </row>
@@ -2570,16 +2590,16 @@
         <v>50</v>
       </c>
       <c r="B14" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="D14" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="75" t="s">
         <v>97</v>
-      </c>
-      <c r="D14" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" s="75" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2587,16 +2607,16 @@
         <v>50</v>
       </c>
       <c r="B15" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="D15" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="75" t="s">
         <v>100</v>
-      </c>
-      <c r="D15" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" s="75" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:24" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2607,30 +2627,30 @@
         <v>51</v>
       </c>
       <c r="C16" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="75" t="s">
         <v>102</v>
-      </c>
-      <c r="D16" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="E16" s="75" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="D17" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="75" t="s">
         <v>105</v>
-      </c>
-      <c r="D17" s="74" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" s="75" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2641,13 +2661,13 @@
         <v>51</v>
       </c>
       <c r="C18" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="75" t="s">
         <v>107</v>
-      </c>
-      <c r="D18" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="E18" s="75" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2658,11 +2678,11 @@
         <v>72</v>
       </c>
       <c r="C19" s="74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" s="74"/>
       <c r="E19" s="75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2677,7 +2697,7 @@
       </c>
       <c r="D20" s="74"/>
       <c r="E20" s="75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2688,11 +2708,11 @@
         <v>52</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" s="74"/>
       <c r="E21" s="75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2700,14 +2720,14 @@
         <v>50</v>
       </c>
       <c r="B22" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="74" t="s">
         <v>112</v>
-      </c>
-      <c r="C22" s="74" t="s">
-        <v>113</v>
       </c>
       <c r="D22" s="74"/>
       <c r="E22" s="75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2722,7 +2742,7 @@
       </c>
       <c r="D23" s="74"/>
       <c r="E23" s="75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2730,128 +2750,142 @@
         <v>50</v>
       </c>
       <c r="B24" s="72" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="74" t="s">
         <v>56</v>
       </c>
       <c r="D24" s="74"/>
       <c r="E24" s="75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="72" t="s">
         <v>117</v>
-      </c>
-      <c r="B25" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="72" t="s">
-        <v>119</v>
       </c>
       <c r="D25" s="72"/>
       <c r="E25" s="76"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="72" t="s">
         <v>117</v>
-      </c>
-      <c r="B26" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="72" t="s">
-        <v>119</v>
       </c>
       <c r="D26" s="72"/>
       <c r="E26" s="76"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="72" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="72" t="s">
+      <c r="A27" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="76"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="76"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="76"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="81" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="72"/>
+      <c r="E31" s="76"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="81" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="72"/>
-      <c r="E27" s="76"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="72" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" s="72" t="s">
+      <c r="C32" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="77" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="72" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="72" t="s">
+      <c r="D32" s="81"/>
+      <c r="E32" s="77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="78"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="72"/>
-      <c r="E29" s="76"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="72" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="72" t="s">
+      <c r="B34" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" s="72"/>
-      <c r="E30" s="76"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="72" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="72"/>
-      <c r="E31" s="77" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="81"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1"/>
+    <hyperlink ref="B34" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Docs/P4_01_analyse_SEO.xlsx
+++ b/Docs/P4_01_analyse_SEO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ltg\Desktop\OPEN_CLASSROOMS\Projet 4\LilianeTshouongang_4_11032022\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ltg\Desktop\OPEN_CLASSROOMS\Projet 4\LilianeTshouongang_4_11032022_V1\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -480,7 +480,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -499,6 +499,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -525,15 +526,30 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,6 +596,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -728,7 +750,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -825,6 +847,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -834,8 +868,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1189,14 +1231,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -2260,8 +2302,8 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2329,20 +2371,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:25" s="78" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="81" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2531,20 +2573,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:25" s="85" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="88" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2582,25 +2624,25 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:5" s="85" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="88" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="76" t="s">
         <v>63</v>
       </c>
       <c r="B19" s="71" t="s">
@@ -2617,7 +2659,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="76" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="67" t="s">
@@ -2634,7 +2676,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="76" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="67" t="s">
@@ -2651,7 +2693,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="76" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="71" t="s">
@@ -2668,7 +2710,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="76" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="67" t="s">
@@ -2685,7 +2727,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="76" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="67" t="s">
@@ -2702,7 +2744,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="79" t="s">
+      <c r="A25" s="76" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="71" t="s">
@@ -2719,7 +2761,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="77" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="67" t="s">
